--- a/Vendedores.xlsx
+++ b/Vendedores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luismorais/Documents/JStoring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luismorais/Documents/JStorage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF674DE-32E4-934E-BE11-2AAFE9CAFBAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83986C13-1CD9-F947-943C-D3C2851ED340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16420" xr2:uid="{8EBF4FDC-6A9F-524F-BA7C-CB33A58675EA}"/>
   </bookViews>
@@ -453,229 +453,229 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>111222333</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>444555666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>777888999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>122133144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>155166177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>233244255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>266277288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>299344355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>444555666</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="C10">
+        <v>366377388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>399455466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>477488499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>566577588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>777888999</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="C14">
+        <v>599677688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>699788799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>899911922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>933944955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>966977988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>122133144</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>155166177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B19">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>999011022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>233244255</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>266277288</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>299344355</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>366377388</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>399455466</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>477488499</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>566577588</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>599677688</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>699788799</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>899911922</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>933944955</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>966977988</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>999011022</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
         <v>33044055</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
